--- a/ecs265-fall-2019/paperlist-ecs265.xlsx
+++ b/ecs265-fall-2019/paperlist-ecs265.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajjad/CS/Davis/Expo/workspace/msadoghi.github.io/ecs265-fall-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15926A1B-F861-9D43-80C1-A946BCC8CC38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F085026D-0DE7-6F46-977F-A5816A349A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-76800" yWindow="-8920" windowWidth="38400" windowHeight="20020" xr2:uid="{DFB6A902-67A6-AA40-9BB0-D172419D290D}"/>
   </bookViews>
@@ -170,15 +170,6 @@
     <t>December 4</t>
   </si>
   <si>
-    <t>Eric Brewer. CAP twelve years later: How the “rules” have changed. Computer, 45(2)</t>
-  </si>
-  <si>
-    <t>Seth Gilbert and Nancy Lynch. Brewer’s conjecture and the feasibility of consistent, available, partitiontolerant web services. SIGACT News</t>
-  </si>
-  <si>
-    <t>Michael J. Fischer, Nancy A. Lynch, and Michael S. Paterson. Impossibility of distributed consensus with one faulty process. Journal of the ACM, 32(2)</t>
-  </si>
-  <si>
     <t>Fast byzantine consensus. IEEE Transactions on Dependable and Secure Computing, TDSC 2006</t>
   </si>
   <si>
@@ -188,9 +179,6 @@
     <t>Revisiting hBFT: Speculative Byzantine Fault Tolerance with Minimum Cost</t>
   </si>
   <si>
-    <t>Christian Cachin and Marko Vukolic. Blockchain consensus protocols in the wild (keynote talk).DISC.2017</t>
-  </si>
-  <si>
     <t>Untangling blockchain: A data processing view of blockchain systems. TKDE.2017</t>
   </si>
   <si>
@@ -203,14 +191,26 @@
     <t>Transaction Management in the R* Distributed Database Management System. TODS'86.</t>
   </si>
   <si>
-    <t xml:space="preserve">Leslie Lamport, Robert Shostak, and Marshall Pease. The byzantine generals problem. ACM Transactions on Programming Languages and Systems, </t>
-  </si>
-  <si>
     <t xml:space="preserve">RapidChain: Scaling Blockchain via Full Sharding CCS '18 </t>
   </si>
   <si>
-    <t>Arvind Narayanan and Jeremy Clark. Bitcoin’s academic pedigree. Communications of the ACM, 60(12)
-Maurice Herlihy. Blockchains from a distributed computing perspective. Communications of the ACM, 62(2)</t>
+    <t>Blockchain consensus protocols in the wild (keynote talk).DISC.2017</t>
+  </si>
+  <si>
+    <t>Impossibility of distributed consensus with one faulty process. Journal of the ACM</t>
+  </si>
+  <si>
+    <t>Brewer’s conjecture and the feasibility of consistent, available, partitiontolerant web services. SIGACT News</t>
+  </si>
+  <si>
+    <t>The byzantine generals problem. ACM Transactions on Programming Languages and Systems</t>
+  </si>
+  <si>
+    <t>Bitcoin’s academic pedigree. Communications of the ACM, 60(12)
+Blockchains from a distributed computing perspective. Communications of the ACM, 62(2)</t>
+  </si>
+  <si>
+    <t>CAP twelve years later: How the “rules” have changed. Computer, 45(2)</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="6"/>
@@ -674,7 +674,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="3"/>
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="6"/>
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="3"/>
@@ -794,7 +794,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="3"/>
@@ -812,7 +812,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -829,7 +829,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="3"/>
@@ -865,7 +865,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="3"/>
@@ -954,7 +954,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1007,7 +1007,7 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="3"/>
@@ -1061,7 +1061,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="3"/>
@@ -1150,7 +1150,7 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="3"/>
@@ -1168,7 +1168,7 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="3"/>

--- a/ecs265-fall-2019/paperlist-ecs265.xlsx
+++ b/ecs265-fall-2019/paperlist-ecs265.xlsx
@@ -65,19 +65,19 @@
     <t>October 16</t>
   </si>
   <si>
+    <t>Impossibility of distributed consensus with one faulty process. JACM’85</t>
+  </si>
+  <si>
+    <t>October 18</t>
+  </si>
+  <si>
     <t>Brewer’s conjecture and the feasibility of consistent, available, partition-tolerant web services. SIGACT’02</t>
   </si>
   <si>
-    <t>October 18</t>
-  </si>
-  <si>
-    <t>Impossibility of distributed consensus with one faulty process. JACM’85</t>
-  </si>
-  <si>
     <t>October 21</t>
   </si>
   <si>
-    <t>Fast byzantine consensus. IEEE Transactions on Dependable and Secure Computing, TDSC’06</t>
+    <t>Fast byzantine consensus. TDSC’06</t>
   </si>
   <si>
     <t>October 23</t>
@@ -372,14 +372,14 @@
     <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1641,10 +1641,10 @@
       <c r="B9" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="C9" t="s" s="3">
+      <c r="C9" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
@@ -1698,7 +1698,7 @@
       <c r="C12" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
@@ -1716,7 +1716,7 @@
       <c r="C13" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
@@ -1734,7 +1734,7 @@
       <c r="C14" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
@@ -1752,7 +1752,7 @@
       <c r="C15" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -1788,7 +1788,7 @@
       <c r="C17" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -1824,7 +1824,7 @@
       <c r="C19" t="s" s="12">
         <v>37</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
@@ -1842,7 +1842,7 @@
       <c r="C20" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
@@ -1860,7 +1860,7 @@
       <c r="C21" t="s" s="3">
         <v>41</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
@@ -1878,7 +1878,7 @@
       <c r="C22" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
@@ -1896,7 +1896,7 @@
       <c r="C23" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
@@ -1914,7 +1914,7 @@
       <c r="C24" t="s" s="12">
         <v>47</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
@@ -1929,7 +1929,7 @@
       <c r="B25" t="s" s="3">
         <v>48</v>
       </c>
-      <c r="C25" t="s" s="15">
+      <c r="C25" t="s" s="13">
         <v>49</v>
       </c>
       <c r="D25" s="6"/>
@@ -1950,7 +1950,7 @@
       <c r="C26" t="s" s="12">
         <v>51</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7"/>
@@ -1986,7 +1986,7 @@
       <c r="C28" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7"/>
@@ -2004,7 +2004,7 @@
       <c r="C29" t="s" s="3">
         <v>57</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
@@ -2022,7 +2022,7 @@
       <c r="C30" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>

--- a/ecs265-fall-2019/paperlist-ecs265.xlsx
+++ b/ecs265-fall-2019/paperlist-ecs265.xlsx
@@ -28,170 +28,170 @@
     <t>October 2</t>
   </si>
   <si>
+    <t>Nonblocking commit protocols, SIGMOD'81</t>
+  </si>
+  <si>
+    <t>October 4</t>
+  </si>
+  <si>
     <t>CAP twelve years later: How the “rules” have changed. Computer’12</t>
   </si>
   <si>
-    <t>October 4</t>
+    <t>October 7</t>
   </si>
   <si>
     <t>Bitcoin’s academic pedigree. CACM’17
 Blockchains from a distributed computing perspective. CACM’19</t>
   </si>
   <si>
-    <t>October 7</t>
+    <t>October 9</t>
+  </si>
+  <si>
+    <t>Impossibility of distributed consensus with one faulty process. JACM’85</t>
+  </si>
+  <si>
+    <t>October 11</t>
+  </si>
+  <si>
+    <t>Brewer’s conjecture and the feasibility of consistent, available, partition-tolerant web services. SIGACT’02</t>
+  </si>
+  <si>
+    <t>October 14</t>
   </si>
   <si>
     <t>Paxos Made Simple, Microsoft Tech Report'01.</t>
   </si>
   <si>
-    <t>October 9</t>
+    <t>October 16</t>
   </si>
   <si>
     <t xml:space="preserve">In Search of an Understandable Consensus Algorithm. USENIX ATC'14 </t>
   </si>
   <si>
-    <t>October 11</t>
+    <t>October 18</t>
   </si>
   <si>
     <t>The byzantine generals problem. TOPLAS’82</t>
   </si>
   <si>
-    <t>October 14</t>
+    <t>October 21</t>
   </si>
   <si>
     <t>Practical Byzantine Fault Tolerance. OSDI'99.</t>
   </si>
   <si>
-    <t>October 16</t>
-  </si>
-  <si>
-    <t>Impossibility of distributed consensus with one faulty process. JACM’85</t>
-  </si>
-  <si>
-    <t>October 18</t>
-  </si>
-  <si>
-    <t>Brewer’s conjecture and the feasibility of consistent, available, partition-tolerant web services. SIGACT’02</t>
-  </si>
-  <si>
-    <t>October 21</t>
+    <t>October 23</t>
   </si>
   <si>
     <t>Fast byzantine consensus. TDSC’06</t>
   </si>
   <si>
-    <t>October 23</t>
+    <t>October 25</t>
   </si>
   <si>
     <t>Zyzzyva: speculative byzantine fault tolerance. SOSP'07</t>
   </si>
   <si>
-    <t>October 25</t>
+    <t>October 28</t>
+  </si>
+  <si>
+    <t>Attested Append-only Memory: Making Adversaries Stick to Their Word. SOSP'07</t>
+  </si>
+  <si>
+    <t>October 30</t>
+  </si>
+  <si>
+    <t>Making Byzantine fault tolerant systems tolerate Byzantine faults, NSDI’09</t>
+  </si>
+  <si>
+    <t>November 1</t>
+  </si>
+  <si>
+    <t>All about Eve: Execute-Verify Replication for Multi-Core Servers. OSDI'12</t>
+  </si>
+  <si>
+    <t>November 4</t>
+  </si>
+  <si>
+    <t>State Machine Replication for the Masses with BFT-SMART. DSN'14</t>
+  </si>
+  <si>
+    <t>November 6</t>
+  </si>
+  <si>
+    <t>HotStuff: BFT Consensus in the Lens of Blockchain. PODC’19</t>
+  </si>
+  <si>
+    <t>November 8</t>
   </si>
   <si>
     <t>RBFT: Redundant Byzantine Fault Tolerance. ICDCS'13.</t>
   </si>
   <si>
-    <t>October 28</t>
-  </si>
-  <si>
-    <t>HotStuff: BFT Consensus in the Lens of Blockchain. PODC’19</t>
-  </si>
-  <si>
-    <t>October 30</t>
-  </si>
-  <si>
-    <t>Attested Append-only Memory: Making Adversaries Stick to Their Word. SOSP'07</t>
-  </si>
-  <si>
-    <t>November 1</t>
-  </si>
-  <si>
-    <t>All about Eve: Execute-Verify Replication for Multi-Core Servers. OSDI'12</t>
-  </si>
-  <si>
-    <t>November 4</t>
-  </si>
-  <si>
-    <t>State Machine Replication for the Masses with BFT-SMART. DSN'14</t>
-  </si>
-  <si>
-    <t>November 6</t>
+    <t>November 11</t>
+  </si>
+  <si>
+    <t>Veterans' Day</t>
+  </si>
+  <si>
+    <t>November 13</t>
+  </si>
+  <si>
+    <t>CheapBFT: Resource-efficient Byzantine Fault Tolerance. EuroSys’12</t>
+  </si>
+  <si>
+    <t>November 15</t>
   </si>
   <si>
     <t>The Honey Badger of BFT Protocols. CCS’16.</t>
   </si>
   <si>
-    <t>November 8</t>
-  </si>
-  <si>
-    <t>CheapBFT: Resource-efficient Byzantine Fault Tolerance. EuroSys’12</t>
-  </si>
-  <si>
-    <t>November 11</t>
-  </si>
-  <si>
-    <t>Veterans' Day</t>
-  </si>
-  <si>
-    <t>November 13</t>
-  </si>
-  <si>
-    <t>BEAT: Asynchronous BFT Made Practical CCS '18</t>
-  </si>
-  <si>
-    <t>November 15</t>
+    <t>November 18</t>
   </si>
   <si>
     <t>Monoxide: Scale out Blockchains with Asynchronous Consensus Zones, NDSI’19</t>
   </si>
   <si>
-    <t>November 18</t>
+    <t>November 20</t>
   </si>
   <si>
     <t xml:space="preserve">RapidChain: Scaling Blockchain via Full Sharding CCS '18 </t>
   </si>
   <si>
-    <t>November 20</t>
+    <t>November 22</t>
   </si>
   <si>
     <t xml:space="preserve">Algorand: Scaling Byzantine Agreements for Cryptocurrencies. SOSP'17.  </t>
   </si>
   <si>
-    <t>November 22</t>
+    <t>November 25</t>
   </si>
   <si>
     <t>Scalable and Probabilistic Leaderless BFT Consensus through Metastability, arXiv'19</t>
   </si>
   <si>
-    <t>November 25</t>
+    <t>November 27</t>
+  </si>
+  <si>
+    <t>Blockchain consensus protocols in the wild (keynote talk). DISC’17</t>
+  </si>
+  <si>
+    <t>November 29</t>
+  </si>
+  <si>
+    <t>Thanksgiving Friday</t>
+  </si>
+  <si>
+    <t>December 2</t>
   </si>
   <si>
     <t>Bitcoin: A peer-to-peer electronic cash system. 2008.</t>
   </si>
   <si>
-    <t>November 27</t>
+    <t>December 4</t>
   </si>
   <si>
     <t>Hyperledger fabric: a distributed operating system for permissioned blockchains. EuroSys'18.</t>
-  </si>
-  <si>
-    <t>November 29</t>
-  </si>
-  <si>
-    <t>Thanksgiving Friday</t>
-  </si>
-  <si>
-    <t>December 2</t>
-  </si>
-  <si>
-    <t>Untangling blockchain: A data processing view of blockchain systems. TKDE’17</t>
-  </si>
-  <si>
-    <t>December 4</t>
-  </si>
-  <si>
-    <t>Blockchain consensus protocols in the wild (keynote talk). DISC’17</t>
   </si>
 </sst>
 </file>
@@ -332,7 +332,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -360,6 +360,9 @@
     <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -369,15 +372,21 @@
     <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,9 +394,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1533,10 +1539,10 @@
       <c r="B3" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
@@ -1544,14 +1550,14 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" ht="34" customHeight="1">
-      <c r="A4" s="9">
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="10">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" t="s" s="11">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="C4" t="s" s="3">
         <v>7</v>
       </c>
       <c r="D4" s="8"/>
@@ -1562,7 +1568,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" ht="31" customHeight="1">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -1587,10 +1593,10 @@
       <c r="B6" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="C6" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
@@ -1623,7 +1629,7 @@
       <c r="B8" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="C8" t="s" s="12">
+      <c r="C8" t="s" s="15">
         <v>15</v>
       </c>
       <c r="D8" s="8"/>
@@ -1641,10 +1647,10 @@
       <c r="B9" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="C9" t="s" s="13">
+      <c r="C9" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
@@ -1677,7 +1683,7 @@
       <c r="B11" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" t="s" s="15">
         <v>21</v>
       </c>
       <c r="D11" s="4"/>
@@ -1695,10 +1701,10 @@
       <c r="B12" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="C12" t="s" s="12">
+      <c r="C12" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
@@ -1713,10 +1719,10 @@
       <c r="B13" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" t="s" s="15">
         <v>25</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
@@ -1731,10 +1737,10 @@
       <c r="B14" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
@@ -1749,10 +1755,10 @@
       <c r="B15" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="C15" t="s" s="12">
+      <c r="C15" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -1767,7 +1773,7 @@
       <c r="B16" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="C16" t="s" s="15">
         <v>31</v>
       </c>
       <c r="D16" s="8"/>
@@ -1788,7 +1794,7 @@
       <c r="C17" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -1803,7 +1809,7 @@
       <c r="B18" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C18" t="s" s="15">
         <v>35</v>
       </c>
       <c r="D18" s="8"/>
@@ -1821,10 +1827,10 @@
       <c r="B19" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="C19" t="s" s="12">
+      <c r="C19" t="s" s="15">
         <v>37</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
@@ -1839,10 +1845,10 @@
       <c r="B20" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>39</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
@@ -1857,10 +1863,10 @@
       <c r="B21" t="s" s="3">
         <v>40</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="C21" t="s" s="15">
         <v>41</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
@@ -1875,10 +1881,10 @@
       <c r="B22" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="C22" t="s" s="15">
         <v>43</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
@@ -1896,7 +1902,7 @@
       <c r="C23" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
@@ -1911,10 +1917,10 @@
       <c r="B24" t="s" s="3">
         <v>46</v>
       </c>
-      <c r="C24" t="s" s="12">
+      <c r="C24" t="s" s="3">
         <v>47</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
@@ -1929,10 +1935,10 @@
       <c r="B25" t="s" s="3">
         <v>48</v>
       </c>
-      <c r="C25" t="s" s="13">
+      <c r="C25" t="s" s="15">
         <v>49</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
@@ -1947,10 +1953,10 @@
       <c r="B26" t="s" s="3">
         <v>50</v>
       </c>
-      <c r="C26" t="s" s="12">
+      <c r="C26" t="s" s="13">
         <v>51</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7"/>
@@ -1965,7 +1971,7 @@
       <c r="B27" t="s" s="3">
         <v>52</v>
       </c>
-      <c r="C27" t="s" s="12">
+      <c r="C27" t="s" s="3">
         <v>53</v>
       </c>
       <c r="D27" s="8"/>
@@ -1986,7 +1992,7 @@
       <c r="C28" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7"/>
@@ -2001,10 +2007,10 @@
       <c r="B29" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="C29" t="s" s="3">
+      <c r="C29" t="s" s="15">
         <v>57</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
@@ -2019,10 +2025,10 @@
       <c r="B30" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="C30" t="s" s="3">
+      <c r="C30" t="s" s="15">
         <v>59</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
@@ -2031,9 +2037,9 @@
       <c r="J30" s="6"/>
     </row>
     <row r="31" ht="15.35" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="16"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -2043,9 +2049,9 @@
       <c r="J31" s="6"/>
     </row>
     <row r="32" ht="15.35" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="18"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -2055,9 +2061,9 @@
       <c r="J32" s="6"/>
     </row>
     <row r="33" ht="15.35" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="18"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -2067,9 +2073,9 @@
       <c r="J33" s="6"/>
     </row>
     <row r="34" ht="15.35" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="18"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2079,9 +2085,9 @@
       <c r="J34" s="6"/>
     </row>
     <row r="35" ht="15.35" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -2091,9 +2097,9 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" ht="15.35" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -2103,16 +2109,16 @@
       <c r="J36" s="6"/>
     </row>
     <row r="37" ht="15.35" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
